--- a/data/trans_camb/P44_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P44_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,15</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-56,92</t>
+          <t>-12,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-56,92</t>
+          <t>-12,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>-8,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,92</t>
+          <t>-10,57</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-23,81</t>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-7,32</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-8,7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-9,57</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-56,83; 57,37</t>
+          <t>-20,81; 7,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,68; -3,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-86,83; -14,24</t>
+          <t>-27,68; -3,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-42,51; 52,62</t>
+          <t>-22,46; 4,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-46,69; 50,12</t>
+          <t>-12,85; 17,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-48,28; 45,06</t>
+          <t>-16,18; 9,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-37,07; 38,59</t>
+          <t>-17,61; 6,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,25; 31,04</t>
+          <t>-24,51; -2,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-56,22; 11,54</t>
+          <t>-11,98; 7,93</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-16,52; 0,55</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-17,42; -1,32</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-17,7; -2,27</t>
         </is>
       </c>
     </row>
@@ -738,7 +792,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-14,31%</t>
+          <t>-47,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -753,32 +807,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>-69,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,06%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,03%</t>
+          <t>-25,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,3%</t>
+          <t>-45,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-31,7%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-54,24%</t>
+          <t>-20,24%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-63,54%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-75,47%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-83,03%</t>
         </is>
       </c>
     </row>
@@ -791,7 +860,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 339,17</t>
+          <t>-100,0; 289,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -806,32 +875,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-76,22; 450,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,14; 581,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 384,48</t>
+          <t>-100,0; 319,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,43; 163,58</t>
+          <t>-100,0; 284,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,8; 142,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-89,88; 60,83</t>
+          <t>-79,11; 143,74</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 42,74</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 35,75</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 52,95</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-18,43</t>
+          <t>-10,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-12,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>-14,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>-14,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-5,96</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-13,2</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-2,38</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-8,19</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-8,59</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-13,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-69,14; 16,95</t>
+          <t>-45,18; 3,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-54,92; 41,74</t>
+          <t>-47,85; 1,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-54,45; 62,86</t>
+          <t>-47,94; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 25,08</t>
+          <t>-47,94; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 30,21</t>
+          <t>-6,66; 19,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,64; 21,34</t>
+          <t>-14,94; 8,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,0; 15,84</t>
+          <t>-14,15; 10,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,24; 25,53</t>
+          <t>-23,51; -6,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-27,35; 25,15</t>
+          <t>-21,66; 7,35</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-26,25; 0,99</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-26,69; 0,25</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-31,63; -6,15</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-52,61%</t>
+          <t>-74,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>-86,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>46,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,49%</t>
+          <t>-26,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-15,58%</t>
+          <t>-12,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>-17,3%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-59,41%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-62,33%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1136,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 199,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 547,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,32 +1151,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-47,35; 89,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,64; 109,51</t>
+          <t>-37,96; 259,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,87; 77,5</t>
+          <t>-80,28; 134,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,76; 58,0</t>
+          <t>-77,1; 174,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,53; 101,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-51,11; 97,96</t>
+          <t>-80,04; 106,57</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-93,45; 24,22</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-94,03; 14,59</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-13,94</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-26,14</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-11,06</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,76</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,69</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-17,09</t>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-48,07; 21,31</t>
+          <t>-9,38; 5,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-39,64; 37,99</t>
+          <t>-8,75; 6,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-57,18; 13,07</t>
+          <t>-10,55; 4,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 22,78</t>
+          <t>-13,53; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,27; 14,17</t>
+          <t>-3,62; 4,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 12,1</t>
+          <t>-4,4; 2,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 14,95</t>
+          <t>-4,37; 2,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-25,83; 17,28</t>
+          <t>-3,28; 7,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-34,93; 2,11</t>
+          <t>-4,22; 3,38</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 3,09</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,09; 2,45</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,03; 2,31</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-31,14%</t>
+          <t>-38,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,67%</t>
+          <t>-6,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-58,41%</t>
+          <t>-45,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-41,31%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-40,2%</t>
+          <t>-30,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-16,77%</t>
+          <t>-28,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-19,51%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-49,86%</t>
+          <t>-14,36%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-18,41%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-37,19%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-44,84%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-87,54; 56,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,58; 142,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 47,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,49; 145,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,8; 106,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-83,31; 100,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-62,52; 56,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-63,24; 67,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-82,83; 13,24</t>
+          <t>-87,13; 420,43</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 311,07</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 342,79</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-27,39</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-19,56</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,89</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-9,22</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-10,6</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-5,92</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-14,42</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-13,82</t>
+          <t>-2,28</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-3,59</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-3,71</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-5,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 35,41</t>
+          <t>-8,93; 5,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-62,1; 31,08</t>
+          <t>-12,26; 0,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-57,51; 27,8</t>
+          <t>-12,44; -0,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,33; 14,47</t>
+          <t>-12,99; -2,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-28,61; 14,9</t>
+          <t>-10,61; 2,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 12,83</t>
+          <t>-9,97; 3,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 12,87</t>
+          <t>-10,11; 3,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 6,32</t>
+          <t>-11,75; 0,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-33,94; 4,69</t>
+          <t>-7,43; 2,76</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; 1,16</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-8,61; 0,78</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-9,96; -1,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,07%</t>
+          <t>-20,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-57,3%</t>
+          <t>-78,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-40,91%</t>
+          <t>-80,48%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-18,36%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-28,75%</t>
+          <t>-42,83%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-33,05%</t>
+          <t>-32,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-16,06%</t>
+          <t>-33,62%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-39,15%</t>
+          <t>-59,55%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-37,53%</t>
+          <t>-33,31%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-52,36%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-54,01%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-77,59%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-70,53; 114,88</t>
+          <t>-90,6; 256,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 147,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 99,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-64,32; 70,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-71,06; 81,91</t>
+          <t>-88,71; 92,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-74,51; 73,87</t>
+          <t>-87,34; 119,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-59,02; 46,33</t>
+          <t>-86,89; 114,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-75,57; 28,16</t>
+          <t>-99,01; 64,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-75,75; 18,69</t>
+          <t>-74,5; 85,09</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-83,7; 42,66</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-84,57; 39,27</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-95,42; -8,56</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-7,66</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-6,51</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-2,23</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 25,46</t>
+          <t>-4,25; 2,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-26,86; 14,1</t>
+          <t>-7,03; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-26,25; 12,2</t>
+          <t>-7,03; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-23,53; 26,46</t>
+          <t>-2,73; 4,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 18,89</t>
+          <t>-7,81; 9,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-27,3; 21,22</t>
+          <t>-12,18; 2,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 17,37</t>
+          <t>-11,19; 5,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 6,85</t>
+          <t>-10,22; 6,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-22,04; 9,96</t>
+          <t>-4,11; 4,68</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-6,37; 0,89</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; 1,62</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 3,99</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>-4,52%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-55,4%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-57,35%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-34,86%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-28,24%</t>
+          <t>-61,52%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>-52,44%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-42,5%</t>
+          <t>-26,83%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-38,31%</t>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-71,66%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-63,8%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-16,42%</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1979,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-76,9; 601,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1685,17 +1994,32 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-70,92; 206,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 124,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 157,02</t>
+          <t>-88,09; 512,83</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 546,6</t>
         </is>
       </c>
     </row>
@@ -1712,17 +2036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1732,12 +2056,12 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1747,12 +2071,27 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1808,6 +2147,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
@@ -1861,6 +2215,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -1914,6 +2283,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-10,06</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-19,93</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-6,77</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-11,2</t>
+          <t>-1,25</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-3,48</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-3,84</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-5,14</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 9,99</t>
+          <t>-10,41; 0,72</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-33,0; 10,04</t>
+          <t>-12,35; -1,66</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-40,24; -1,85</t>
+          <t>-13,26; -2,63</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 10,98</t>
+          <t>-12,92; -2,4</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 8,83</t>
+          <t>-3,21; 3,77</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 6,46</t>
+          <t>-5,5; 1,37</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 5,87</t>
+          <t>-5,36; 1,09</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 5,09</t>
+          <t>-7,41; -1,79</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-22,39; -0,13</t>
+          <t>-4,95; 1,26</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; -1,22</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-7,36; -1,59</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; -3,09</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-28,02%</t>
+          <t>-49,62%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-27,42%</t>
+          <t>-79,37%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-54,3%</t>
+          <t>-90,2%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>-88,55%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-14,27%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-19,66%</t>
+          <t>-31,66%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-12,94%</t>
+          <t>-31,27%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-20,12%</t>
+          <t>-72,72%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-33,26%</t>
+          <t>-19,62%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-54,43%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-60,14%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-80,45%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-64,95; 35,95</t>
+          <t>-84,41; 27,37</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-69,63; 40,63</t>
+          <t>-97,29; -31,63</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-83,6; 2,87</t>
+          <t>-100,0; -51,86</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-34,02; 42,31</t>
+          <t>-100,0; -40,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 34,73</t>
+          <t>-39,36; 81,46</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-49,12; 27,53</t>
+          <t>-64,26; 33,5</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-39,8; 22,65</t>
+          <t>-64,64; 32,65</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-47,29; 18,56</t>
+          <t>-89,0; -30,6</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-56,04; -0,46</t>
+          <t>-58,36; 26,75</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-78,34; -25,33</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-81,27; -31,62</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-92,16; -55,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
